--- a/malaria_column_names_dictionary.xlsx
+++ b/malaria_column_names_dictionary.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4cdd69791e362b2/Desktop/Moringa/dsc-phase-5-group-14-project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="541" documentId="13_ncr:1_{2FEDB0E8-29DE-4E1E-9B2D-9A98BCACFA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CCF21B4-CC77-476A-A678-CE30F31F70DF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -12728,7 +12722,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -12854,10 +12848,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13057,17 +13047,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3982ED-C5C4-41E2-B2BB-8B0310EF3558}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1993"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1975" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1955" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1991" sqref="C1991"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="48.7109375" customWidth="1"/>
     <col min="3" max="3" width="71.5703125" customWidth="1"/>
   </cols>
@@ -35159,7 +35149,7 @@
       <c r="D1993" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1990" xr:uid="{AF3982ED-C5C4-41E2-B2BB-8B0310EF3558}"/>
+  <autoFilter ref="A1:C1990"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
     <cfRule type="duplicateValues" dxfId="2" priority="6"/>
